--- a/Multicriteria/bin/Debug/_test_electre_result.xlsx
+++ b/Multicriteria/bin/Debug/_test_electre_result.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Таблица смежности" sheetId="1" r:id="R7f1c708f18cf4689"/>
-    <sheet name="Согласие" sheetId="2" r:id="R7f52f816eeaa4c03"/>
-    <sheet name="Несогласие" sheetId="3" r:id="R2577995b63764d75"/>
+    <sheet name="Результат" sheetId="1" r:id="Re7b91cad4be642fd"/>
+    <sheet name="Согласие" sheetId="2" r:id="R54422db87c5d4fcc"/>
+    <sheet name="Несогласие" sheetId="3" r:id="R63ba58c9829a4c7b"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -19,7 +19,7 @@
     <t>Модел(и)</t>
   </si>
   <si>
-    <t>Штрафной балл</t>
+    <t>Приоритет</t>
   </si>
   <si>
     <t>best</t>
@@ -218,10 +218,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0925925925925926</v>
+        <v>0.0888888888888889</v>
       </c>
       <c r="D2" s="0">
-        <v>0.416666666666667</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -235,7 +235,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -246,7 +246,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>0.833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>

--- a/Multicriteria/bin/Debug/_test_electre_result.xlsx
+++ b/Multicriteria/bin/Debug/_test_electre_result.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Результат" sheetId="1" r:id="Re7b91cad4be642fd"/>
-    <sheet name="Согласие" sheetId="2" r:id="R54422db87c5d4fcc"/>
-    <sheet name="Несогласие" sheetId="3" r:id="R63ba58c9829a4c7b"/>
+    <sheet name="Результат" sheetId="1" r:id="R967f0da3d3fe49b6"/>
+    <sheet name="Согласие" sheetId="2" r:id="Rc113d9fb89764ac2"/>
+    <sheet name="Несогласие" sheetId="3" r:id="R79cade986c724535"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -153,10 +153,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>0.636363636363636</v>
+        <v>0.6875</v>
       </c>
       <c r="D2" s="0">
-        <v>0.818181818181818</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="3">
@@ -164,13 +164,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="0">
-        <v>0.363636363636364</v>
+        <v>0.3125</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>0.818181818181818</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="4">
@@ -178,10 +178,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0">
-        <v>0.181818181818182</v>
+        <v>0.0625</v>
       </c>
       <c r="C4" s="0">
-        <v>0.181818181818182</v>
+        <v>0.0625</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
@@ -218,10 +218,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0888888888888889</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="D2" s="0">
-        <v>0.266666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -235,7 +235,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -246,7 +246,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
